--- a/Excel/12_stage_wave.xlsx
+++ b/Excel/12_stage_wave.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891E9F5B-6C31-4AF8-BF4F-7CFAE1B01953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36151D63-0870-49C3-9BA9-432B091900C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7950" yWindow="6780" windowWidth="27600" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="5835" windowWidth="31680" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>No</t>
   </si>
@@ -259,6 +259,30 @@
   <si>
     <t>챕터1스테이지1웨이브1</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>챕터1스테이지1웨이브2</t>
+  </si>
+  <si>
+    <t>챕터1스테이지1웨이브3</t>
+  </si>
+  <si>
+    <t>챕터1스테이지1웨이브4</t>
+  </si>
+  <si>
+    <t>챕터1스테이지1웨이브5</t>
+  </si>
+  <si>
+    <t>챕터1스테이지1웨이브6</t>
+  </si>
+  <si>
+    <t>챕터1스테이지1웨이브7</t>
+  </si>
+  <si>
+    <t>챕터1스테이지1웨이브8</t>
+  </si>
+  <si>
+    <t>챕터1스테이지1웨이브9</t>
   </si>
 </sst>
 </file>
@@ -686,7 +710,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -749,7 +773,7 @@
     <col min="68" max="68" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="12.75" customHeight="1">
+    <row r="1" spans="1:66" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -835,7 +859,7 @@
       <c r="BM1" s="1"/>
       <c r="BN1" s="4"/>
     </row>
-    <row r="2" spans="1:68" ht="12.75" customHeight="1">
+    <row r="2" spans="1:66" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -921,9 +945,9 @@
       <c r="BM2" s="6"/>
       <c r="BN2" s="7"/>
     </row>
-    <row r="3" spans="1:68" ht="16.5">
+    <row r="3" spans="1:66" ht="16.5">
       <c r="A3" s="3">
-        <f t="shared" ref="A3:A9" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A17" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="8">
@@ -942,7 +966,7 @@
         <v>13000001</v>
       </c>
       <c r="G3" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H3" s="16">
         <v>0.5</v>
@@ -1008,7 +1032,7 @@
       <c r="BM3" s="1"/>
       <c r="BN3" s="10"/>
     </row>
-    <row r="4" spans="1:68" ht="16.5">
+    <row r="4" spans="1:66" ht="16.5">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1095,7 +1119,7 @@
       <c r="BM4" s="1"/>
       <c r="BN4" s="10"/>
     </row>
-    <row r="5" spans="1:68" ht="16.5">
+    <row r="5" spans="1:66" ht="16.5">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1113,10 +1137,10 @@
         <v>60</v>
       </c>
       <c r="F5" s="1">
-        <v>13000002</v>
+        <v>13000003</v>
       </c>
       <c r="G5" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H5" s="16">
         <v>0.5</v>
@@ -1182,7 +1206,7 @@
       <c r="BM5" s="1"/>
       <c r="BN5" s="10"/>
     </row>
-    <row r="6" spans="1:68" ht="16.5">
+    <row r="6" spans="1:66" ht="16.5">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1200,7 +1224,7 @@
         <v>60</v>
       </c>
       <c r="F6" s="1">
-        <v>13000001</v>
+        <v>13000003</v>
       </c>
       <c r="G6" s="1">
         <v>40</v>
@@ -1269,7 +1293,7 @@
       <c r="BM6" s="1"/>
       <c r="BN6" s="10"/>
     </row>
-    <row r="7" spans="1:68" ht="16.5">
+    <row r="7" spans="1:66" ht="16.5">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1287,10 +1311,10 @@
         <v>90</v>
       </c>
       <c r="F7" s="1">
-        <v>13000002</v>
+        <v>13000004</v>
       </c>
       <c r="G7" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H7" s="16">
         <v>0.5</v>
@@ -1356,7 +1380,7 @@
       <c r="BM7" s="1"/>
       <c r="BN7" s="10"/>
     </row>
-    <row r="8" spans="1:68" ht="16.5">
+    <row r="8" spans="1:66" ht="16.5">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1374,10 +1398,10 @@
         <v>120</v>
       </c>
       <c r="F8" s="1">
-        <v>13000002</v>
+        <v>13000004</v>
       </c>
       <c r="G8" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H8" s="16">
         <v>0.2</v>
@@ -1443,7 +1467,7 @@
       <c r="BM8" s="1"/>
       <c r="BN8" s="10"/>
     </row>
-    <row r="9" spans="1:68" ht="16.5">
+    <row r="9" spans="1:66" ht="16.5">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1461,10 +1485,10 @@
         <v>125</v>
       </c>
       <c r="F9" s="1">
-        <v>13000002</v>
+        <v>13000005</v>
       </c>
       <c r="G9" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H9" s="16">
         <v>0.2</v>
@@ -1530,17 +1554,36 @@
       <c r="BM9" s="1"/>
       <c r="BN9" s="10"/>
     </row>
-    <row r="10" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="13"/>
+    <row r="10" spans="1:66" ht="16.5">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="8">
+        <v>12000008</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>13000004</v>
+      </c>
+      <c r="G10" s="1">
+        <v>100</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1579,8 +1622,8 @@
       <c r="AT10" s="1"/>
       <c r="AU10" s="1"/>
       <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
-      <c r="AX10" s="1"/>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="10"/>
       <c r="AY10" s="10"/>
       <c r="AZ10" s="10"/>
       <c r="BA10" s="10"/>
@@ -1595,22 +1638,39 @@
       <c r="BJ10" s="10"/>
       <c r="BK10" s="10"/>
       <c r="BL10" s="10"/>
-      <c r="BM10" s="10"/>
+      <c r="BM10" s="1"/>
       <c r="BN10" s="10"/>
-      <c r="BO10" s="1"/>
-      <c r="BP10" s="10"/>
-    </row>
-    <row r="11" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="13"/>
+    </row>
+    <row r="11" spans="1:66" ht="16.5">
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="8">
+        <v>12000009</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1">
+        <v>13000005</v>
+      </c>
+      <c r="G11" s="1">
+        <v>30</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1649,8 +1709,8 @@
       <c r="AT11" s="1"/>
       <c r="AU11" s="1"/>
       <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
-      <c r="AX11" s="1"/>
+      <c r="AW11" s="10"/>
+      <c r="AX11" s="10"/>
       <c r="AY11" s="10"/>
       <c r="AZ11" s="10"/>
       <c r="BA11" s="10"/>
@@ -1665,22 +1725,39 @@
       <c r="BJ11" s="10"/>
       <c r="BK11" s="10"/>
       <c r="BL11" s="10"/>
-      <c r="BM11" s="10"/>
+      <c r="BM11" s="1"/>
       <c r="BN11" s="10"/>
-      <c r="BO11" s="1"/>
-      <c r="BP11" s="10"/>
-    </row>
-    <row r="12" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="13"/>
+    </row>
+    <row r="12" spans="1:66" ht="16.5">
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="8">
+        <v>12000010</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>60</v>
+      </c>
+      <c r="F12" s="1">
+        <v>13000004</v>
+      </c>
+      <c r="G12" s="1">
+        <v>100</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1719,8 +1796,8 @@
       <c r="AT12" s="1"/>
       <c r="AU12" s="1"/>
       <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
-      <c r="AX12" s="1"/>
+      <c r="AW12" s="10"/>
+      <c r="AX12" s="10"/>
       <c r="AY12" s="10"/>
       <c r="AZ12" s="10"/>
       <c r="BA12" s="10"/>
@@ -1735,22 +1812,39 @@
       <c r="BJ12" s="10"/>
       <c r="BK12" s="10"/>
       <c r="BL12" s="10"/>
-      <c r="BM12" s="10"/>
+      <c r="BM12" s="1"/>
       <c r="BN12" s="10"/>
-      <c r="BO12" s="1"/>
-      <c r="BP12" s="10"/>
-    </row>
-    <row r="13" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="13"/>
+    </row>
+    <row r="13" spans="1:66" ht="16.5">
+      <c r="A13" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="8">
+        <v>12000011</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>60</v>
+      </c>
+      <c r="F13" s="1">
+        <v>13000006</v>
+      </c>
+      <c r="G13" s="1">
+        <v>40</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1789,8 +1883,8 @@
       <c r="AT13" s="1"/>
       <c r="AU13" s="1"/>
       <c r="AV13" s="1"/>
-      <c r="AW13" s="1"/>
-      <c r="AX13" s="1"/>
+      <c r="AW13" s="10"/>
+      <c r="AX13" s="10"/>
       <c r="AY13" s="10"/>
       <c r="AZ13" s="10"/>
       <c r="BA13" s="10"/>
@@ -1805,22 +1899,39 @@
       <c r="BJ13" s="10"/>
       <c r="BK13" s="10"/>
       <c r="BL13" s="10"/>
-      <c r="BM13" s="10"/>
+      <c r="BM13" s="1"/>
       <c r="BN13" s="10"/>
-      <c r="BO13" s="1"/>
-      <c r="BP13" s="10"/>
-    </row>
-    <row r="14" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="13"/>
+    </row>
+    <row r="14" spans="1:66" ht="16.5">
+      <c r="A14" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="8">
+        <v>12000012</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>90</v>
+      </c>
+      <c r="F14" s="1">
+        <v>13000005</v>
+      </c>
+      <c r="G14" s="1">
+        <v>100</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1859,8 +1970,8 @@
       <c r="AT14" s="1"/>
       <c r="AU14" s="1"/>
       <c r="AV14" s="1"/>
-      <c r="AW14" s="1"/>
-      <c r="AX14" s="1"/>
+      <c r="AW14" s="10"/>
+      <c r="AX14" s="10"/>
       <c r="AY14" s="10"/>
       <c r="AZ14" s="10"/>
       <c r="BA14" s="10"/>
@@ -1875,22 +1986,39 @@
       <c r="BJ14" s="10"/>
       <c r="BK14" s="10"/>
       <c r="BL14" s="10"/>
-      <c r="BM14" s="10"/>
+      <c r="BM14" s="1"/>
       <c r="BN14" s="10"/>
-      <c r="BO14" s="1"/>
-      <c r="BP14" s="10"/>
-    </row>
-    <row r="15" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="13"/>
+    </row>
+    <row r="15" spans="1:66" ht="16.5">
+      <c r="A15" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="8">
+        <v>12000013</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>120</v>
+      </c>
+      <c r="F15" s="1">
+        <v>13000006</v>
+      </c>
+      <c r="G15" s="1">
+        <v>50</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1929,8 +2057,8 @@
       <c r="AT15" s="1"/>
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
-      <c r="AW15" s="1"/>
-      <c r="AX15" s="1"/>
+      <c r="AW15" s="10"/>
+      <c r="AX15" s="10"/>
       <c r="AY15" s="10"/>
       <c r="AZ15" s="10"/>
       <c r="BA15" s="10"/>
@@ -1945,22 +2073,39 @@
       <c r="BJ15" s="10"/>
       <c r="BK15" s="10"/>
       <c r="BL15" s="10"/>
-      <c r="BM15" s="10"/>
+      <c r="BM15" s="1"/>
       <c r="BN15" s="10"/>
-      <c r="BO15" s="1"/>
-      <c r="BP15" s="10"/>
-    </row>
-    <row r="16" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="13"/>
+    </row>
+    <row r="16" spans="1:66" ht="16.5">
+      <c r="A16" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="8">
+        <v>12000014</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>125</v>
+      </c>
+      <c r="F16" s="1">
+        <v>13000007</v>
+      </c>
+      <c r="G16" s="1">
+        <v>50</v>
+      </c>
+      <c r="H16" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1999,8 +2144,8 @@
       <c r="AT16" s="1"/>
       <c r="AU16" s="1"/>
       <c r="AV16" s="1"/>
-      <c r="AW16" s="1"/>
-      <c r="AX16" s="1"/>
+      <c r="AW16" s="10"/>
+      <c r="AX16" s="10"/>
       <c r="AY16" s="10"/>
       <c r="AZ16" s="10"/>
       <c r="BA16" s="10"/>
@@ -2015,22 +2160,39 @@
       <c r="BJ16" s="10"/>
       <c r="BK16" s="10"/>
       <c r="BL16" s="10"/>
-      <c r="BM16" s="10"/>
+      <c r="BM16" s="1"/>
       <c r="BN16" s="10"/>
-      <c r="BO16" s="1"/>
-      <c r="BP16" s="10"/>
-    </row>
-    <row r="17" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="13"/>
+    </row>
+    <row r="17" spans="1:68" ht="16.5">
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="8">
+        <v>12000015</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>125</v>
+      </c>
+      <c r="F17" s="1">
+        <v>13000008</v>
+      </c>
+      <c r="G17" s="1">
+        <v>50</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -2069,8 +2231,8 @@
       <c r="AT17" s="1"/>
       <c r="AU17" s="1"/>
       <c r="AV17" s="1"/>
-      <c r="AW17" s="1"/>
-      <c r="AX17" s="1"/>
+      <c r="AW17" s="10"/>
+      <c r="AX17" s="10"/>
       <c r="AY17" s="10"/>
       <c r="AZ17" s="10"/>
       <c r="BA17" s="10"/>
@@ -2085,10 +2247,8 @@
       <c r="BJ17" s="10"/>
       <c r="BK17" s="10"/>
       <c r="BL17" s="10"/>
-      <c r="BM17" s="10"/>
+      <c r="BM17" s="1"/>
       <c r="BN17" s="10"/>
-      <c r="BO17" s="1"/>
-      <c r="BP17" s="10"/>
     </row>
     <row r="18" spans="1:68" ht="12.75" customHeight="1">
       <c r="A18" s="3"/>

--- a/Excel/12_stage_wave.xlsx
+++ b/Excel/12_stage_wave.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36151D63-0870-49C3-9BA9-432B091900C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F40FE4-CCBB-43DD-B571-D494E14099B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="5835" windowWidth="31680" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>No</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>챕터1스테이지1웨이브9</t>
+  </si>
+  <si>
+    <t>챕터1스테이지1웨이브10</t>
   </si>
 </sst>
 </file>
@@ -710,7 +713,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -947,7 +950,7 @@
     </row>
     <row r="3" spans="1:66" ht="16.5">
       <c r="A3" s="3">
-        <f t="shared" ref="A3:A17" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A18" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="8">
@@ -2181,7 +2184,7 @@
         <v>125</v>
       </c>
       <c r="F17" s="1">
-        <v>13000008</v>
+        <v>13000007</v>
       </c>
       <c r="G17" s="1">
         <v>50</v>
@@ -2250,17 +2253,36 @@
       <c r="BM17" s="1"/>
       <c r="BN17" s="10"/>
     </row>
-    <row r="18" spans="1:68" ht="12.75" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="13"/>
+    <row r="18" spans="1:68" ht="16.5">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="8">
+        <v>12000016</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>60</v>
+      </c>
+      <c r="F18" s="1">
+        <v>13000008</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -2299,8 +2321,8 @@
       <c r="AT18" s="1"/>
       <c r="AU18" s="1"/>
       <c r="AV18" s="1"/>
-      <c r="AW18" s="1"/>
-      <c r="AX18" s="1"/>
+      <c r="AW18" s="10"/>
+      <c r="AX18" s="10"/>
       <c r="AY18" s="10"/>
       <c r="AZ18" s="10"/>
       <c r="BA18" s="10"/>
@@ -2315,10 +2337,8 @@
       <c r="BJ18" s="10"/>
       <c r="BK18" s="10"/>
       <c r="BL18" s="10"/>
-      <c r="BM18" s="10"/>
+      <c r="BM18" s="1"/>
       <c r="BN18" s="10"/>
-      <c r="BO18" s="1"/>
-      <c r="BP18" s="10"/>
     </row>
     <row r="19" spans="1:68" ht="12.75" customHeight="1">
       <c r="A19" s="3"/>

--- a/Excel/12_stage_wave.xlsx
+++ b/Excel/12_stage_wave.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F40FE4-CCBB-43DD-B571-D494E14099B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BF11EC-DEA9-4B0B-83F5-C925F6A5E5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3555" yWindow="4500" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -713,7 +713,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1050,16 +1050,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>13000002</v>
       </c>
       <c r="G4" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H4" s="16">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>15</v>
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>13000003</v>
@@ -1149,7 +1149,7 @@
         <v>0.5</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1224,19 +1224,19 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>13000003</v>
+        <v>13000004</v>
       </c>
       <c r="G6" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H6" s="16">
         <v>0.5</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1311,10 +1311,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1">
-        <v>13000004</v>
+        <v>13000005</v>
       </c>
       <c r="G7" s="1">
         <v>100</v>

--- a/Excel/12_stage_wave.xlsx
+++ b/Excel/12_stage_wave.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BF11EC-DEA9-4B0B-83F5-C925F6A5E5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256DE7DF-A837-4E6F-B858-754250340AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="4500" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7365" yWindow="4425" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -713,7 +713,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1">
         <v>13000002</v>
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1">
         <v>13000003</v>
@@ -1224,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1">
         <v>13000004</v>
@@ -1311,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
         <v>13000005</v>
@@ -1398,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1">
         <v>13000004</v>
@@ -1485,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="F9" s="1">
         <v>13000005</v>
@@ -1659,7 +1659,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1">
         <v>13000005</v>
@@ -1746,7 +1746,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1">
         <v>13000004</v>
@@ -1833,7 +1833,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1">
         <v>13000006</v>
@@ -1920,7 +1920,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="1">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1">
         <v>13000005</v>
@@ -2007,7 +2007,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="1">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1">
         <v>13000006</v>
@@ -2094,7 +2094,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="1">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="F16" s="1">
         <v>13000007</v>
@@ -2181,7 +2181,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="1">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="F17" s="1">
         <v>13000007</v>
@@ -2268,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1">
         <v>13000008</v>
@@ -2280,7 +2280,7 @@
         <v>0.2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>

--- a/Excel/12_stage_wave.xlsx
+++ b/Excel/12_stage_wave.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256DE7DF-A837-4E6F-B858-754250340AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E853B831-9CC5-4BBD-8DC5-4B8B366A4CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7365" yWindow="4425" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10875" yWindow="4260" windowWidth="20610" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -713,7 +713,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -969,7 +969,7 @@
         <v>13000001</v>
       </c>
       <c r="G3" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H3" s="16">
         <v>0.5</v>
@@ -1056,7 +1056,7 @@
         <v>13000002</v>
       </c>
       <c r="G4" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H4" s="16">
         <v>0.5</v>
@@ -1143,7 +1143,7 @@
         <v>13000003</v>
       </c>
       <c r="G5" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="H5" s="16">
         <v>0.5</v>
@@ -1230,7 +1230,7 @@
         <v>13000004</v>
       </c>
       <c r="G6" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H6" s="16">
         <v>0.5</v>
@@ -1317,7 +1317,7 @@
         <v>13000005</v>
       </c>
       <c r="G7" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H7" s="16">
         <v>0.5</v>
@@ -1578,7 +1578,7 @@
         <v>13000004</v>
       </c>
       <c r="G10" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H10" s="16">
         <v>0.5</v>
@@ -1752,7 +1752,7 @@
         <v>13000004</v>
       </c>
       <c r="G12" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H12" s="16">
         <v>0.5</v>
@@ -1926,7 +1926,7 @@
         <v>13000005</v>
       </c>
       <c r="G14" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H14" s="16">
         <v>0.5</v>
